--- a/testDemo1.xlsx
+++ b/testDemo1.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
-  <si>
-    <t xml:space="preserve">item id </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+  <si>
+    <t>item id</t>
   </si>
   <si>
     <t>item name</t>
@@ -68,7 +68,70 @@
     <t>project stauts</t>
   </si>
   <si>
-    <t>tasks list</t>
+    <t>Task1</t>
+  </si>
+  <si>
+    <t>Task description1</t>
+  </si>
+  <si>
+    <t>Task2</t>
+  </si>
+  <si>
+    <t>Task description2</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>item1</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>0021-03-21</t>
+  </si>
+  <si>
+    <t>0021-06-03</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0021-07-16</t>
+  </si>
+  <si>
+    <t>p9999</t>
+  </si>
+  <si>
+    <t>0017-11-22</t>
+  </si>
+  <si>
+    <t>0017-12-22</t>
+  </si>
+  <si>
+    <t>remark 1</t>
+  </si>
+  <si>
+    <t>Mohammed</t>
+  </si>
+  <si>
+    <t>s/w</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>test 1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>test 2</t>
   </si>
   <si>
     <t>p3</t>
@@ -77,27 +140,6 @@
     <t>item21</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>0021-03-21</t>
-  </si>
-  <si>
-    <t>0021-06-03</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0021-07-16</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
     <t>0018-05-15</t>
   </si>
   <si>
@@ -113,9 +155,6 @@
     <t>production</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>p4</t>
   </si>
   <si>
@@ -128,9 +167,6 @@
     <t>close</t>
   </si>
   <si>
-    <t>p2</t>
-  </si>
-  <si>
     <t>0018-08-10</t>
   </si>
   <si>
@@ -141,9 +177,6 @@
   </si>
   <si>
     <t>Mohanned</t>
-  </si>
-  <si>
-    <t>s/w</t>
   </si>
 </sst>
 </file>
@@ -188,7 +221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -252,117 +285,194 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="R4" t="s">
         <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
